--- a/data/origin/das.xlsx
+++ b/data/origin/das.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.709442964305578</v>
+        <v>1.401691874696803</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.14966243109358</v>
+        <v>4.76467452504393</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.185222901628506</v>
+        <v>6.287014625344667</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9200555764514995</v>
+        <v>5.797197582688225</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.65533812570318</v>
+        <v>4.128447725126659</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.599593838389712</v>
+        <v>6.244357805133014</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.143322873790845</v>
+        <v>2.610068341713293</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.72186081367427</v>
+        <v>5.388956770419529</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.283719710256662</v>
+        <v>6.559033899975498</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.698084972396174</v>
+        <v>4.981606800490533</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.180336187979894</v>
+        <v>4.608951652018971</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.579423925986033</v>
+        <v>4.304475149655995</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.745563264208171</v>
+        <v>3.779873531787943</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5861427695013108</v>
+        <v>2.123337623112671</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.263353726080853</v>
+        <v>5.679917968419034</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.305582418420256</v>
+        <v>4.911436619250049</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.366382369092022</v>
+        <v>3.239071518162906</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.583363924187814</v>
+        <v>3.286493935669152</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.802763152725466</v>
+        <v>6.127090800180497</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.782637962087907</v>
+        <v>4.19374960506862</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.014758242522035</v>
+        <v>5.299507099948784</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.175140040052189</v>
+        <v>2.185443386572016</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.546290264552263</v>
+        <v>4.305091081495919</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.916214591429686</v>
+        <v>6.036868560319679</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.639581432334499</v>
+        <v>4.08773538424278</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.7437860870079</v>
+        <v>5.119204246515875</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.041281594376319</v>
+        <v>2.178619229748853</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.055852615118999</v>
+        <v>3.915351572926261</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.069926868969739</v>
+        <v>4.704637851921256</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.901603638760001</v>
+        <v>6.115598477028679</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.463774008354314</v>
+        <v>4.399249054108792</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.870945785880803</v>
+        <v>2.998428194815172</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.550304734318971</v>
+        <v>5.400718069883279</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.345879210057882</v>
+        <v>3.531238905108285</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.508311934726692</v>
+        <v>4.237262497265881</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.906281924036066</v>
+        <v>3.250083312487731</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.280332912386724</v>
+        <v>5.491809679539187</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.302095267278737</v>
+        <v>5.19315183036728</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.7183062860288</v>
+        <v>3.389625020937447</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.221292637509425</v>
+        <v>4.272706368638572</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.034596198415722</v>
+        <v>3.852257679304406</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.39842035371871</v>
+        <v>7.257003176178905</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.477655787130748</v>
+        <v>3.278998788699248</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.680960709532597</v>
+        <v>6.525060251021312</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.755315502792787</v>
+        <v>4.7032458659946</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.634187696501848</v>
+        <v>4.798701302518477</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.426752687136954</v>
+        <v>0.4798427160451819</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.251544482221945</v>
+        <v>5.428262309228168</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.578770411077443</v>
+        <v>3.475503690348053</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.217494585984041</v>
+        <v>3.161308751209785</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.73360711362614</v>
+        <v>4.843294464178347</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.044739990247184</v>
+        <v>4.182921634717218</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.845478827895861</v>
+        <v>6.051688969186412</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.41390279388461</v>
+        <v>5.300237046008966</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.907407461506617</v>
+        <v>7.462021363774697</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.564040072616092</v>
+        <v>3.35230581896339</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.821183052633004</v>
+        <v>3.768541005632567</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.064856417193125</v>
+        <v>7.005942430948346</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.04998233124274787</v>
+        <v>7.464878722763522</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.074990063000702</v>
+        <v>4.971673433777616</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.731817750481268</v>
+        <v>2.487660508887165</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.276809028896129</v>
+        <v>2.02505601789328</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.668586452568757</v>
+        <v>3.213247153753179</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.510105821251121</v>
+        <v>2.763339947681066</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.962319702982174</v>
+        <v>6.662061375097649</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.293105568936562</v>
+        <v>3.899399091374187</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.705470415466722</v>
+        <v>6.773525825460924</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.331253184451243</v>
+        <v>3.506283749933935</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.092545045952465</v>
+        <v>8.450218731719071</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.924222336741039</v>
+        <v>5.590727046191531</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.797588978832466</v>
+        <v>3.812576750497797</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.052401972438295</v>
+        <v>2.79250448829644</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.241626968655612</v>
+        <v>0.09947903619212095</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.523373173606258</v>
+        <v>5.570263624428437</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.989815302895659</v>
+        <v>2.931762357668379</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6495700810986458</v>
+        <v>4.186375403766296</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.464704864308383</v>
+        <v>3.425919758733045</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.644282286489061</v>
+        <v>3.808221931181094</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.05762080895155</v>
+        <v>7.924224758239562</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.206614451206319</v>
+        <v>5.288111911805575</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.701115516150697</v>
+        <v>6.15681340328798</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.41220075586944</v>
+        <v>5.180695854434932</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.458194807660121</v>
+        <v>4.187273537103759</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.727300232798928</v>
+        <v>5.104802103143954</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.733888839424827</v>
+        <v>3.943185311103814</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.769746613218013</v>
+        <v>0.7492394341108644</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.559998412089527</v>
+        <v>4.182695765183743</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.805800410169184</v>
+        <v>5.01863060489941</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.325668562838008</v>
+        <v>3.11267593452757</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.510033767299568</v>
+        <v>2.692202228428175</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.868845466153283</v>
+        <v>12.11741250827266</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.579727259938643</v>
+        <v>2.686126762320946</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.754740568557382</v>
+        <v>6.426642274841723</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.152015659755751</v>
+        <v>1.882044972280746</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.624055494877633</v>
+        <v>4.001953578824643</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.738139362318069</v>
+        <v>2.700402567661439</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.335880174096137</v>
+        <v>4.358401786619698</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.543031162360319</v>
+        <v>3.687113649515569</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.638591118939523</v>
+        <v>3.488244001418</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.432308108509548</v>
+        <v>11.70024654331812</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.680043839424805</v>
+        <v>4.729361178310821</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.291277259765912</v>
+        <v>0.3187147122988838</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.707506756633379</v>
+        <v>4.831271292183256</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.286642545617509</v>
+        <v>2.706144045107287</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.647638430415736</v>
+        <v>7.063744101524941</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.124965256780106</v>
+        <v>6.606898368935841</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.017513265142343</v>
+        <v>5.531957241766232</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.201485339484259</v>
+        <v>5.372597875639149</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.999922440028193</v>
+        <v>9.010338472892599</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.159158013658297</v>
+        <v>5.482750579521127</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.622163821704867</v>
+        <v>5.648589369959867</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.791848639161896</v>
+        <v>3.305311413624192</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.337605262767116</v>
+        <v>2.631900266112631</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.225306615224047</v>
+        <v>6.725952824174496</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.24639194199041</v>
+        <v>5.188253716059052</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.983996227879873</v>
+        <v>6.328214255104175</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.90070597442527</v>
+        <v>5.733851280108798</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.268042083533828</v>
+        <v>3.169500580030677</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.553734004691599</v>
+        <v>7.344070673185433</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.841399206926988</v>
+        <v>4.11412820577536</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.661767339719431</v>
+        <v>8.270188658917117</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.068389074595768</v>
+        <v>4.720946550500467</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.657754875648357</v>
+        <v>6.531013966888249</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.94200591674345</v>
+        <v>5.995187053613603</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.559688339874077</v>
+        <v>6.040191666851436</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.345139962859685</v>
+        <v>5.997662059439242</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.090150848730518</v>
+        <v>7.460601742387015</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.153330724449837</v>
+        <v>2.410763100262005</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.5088415755083</v>
+        <v>8.976777716805636</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.920963151600291</v>
+        <v>6.657035574034596</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.496817379905405</v>
+        <v>4.865539318809185</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.390779201959133</v>
+        <v>2.54388562385396</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.037558338928585</v>
+        <v>3.754148675351436</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.330867233719093</v>
+        <v>3.925109260348902</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.803181436072637</v>
+        <v>6.139213906760338</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.616519845359444</v>
+        <v>8.233947468695812</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.205338469973339</v>
+        <v>6.861298472385135</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.644231836550707</v>
+        <v>6.575948435305217</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.194850250728833</v>
+        <v>3.495820195216591</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.925548207578295</v>
+        <v>7.235451842691984</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.766823765575853</v>
+        <v>2.326370838469278</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.4664634802771</v>
+        <v>5.814800424052374</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.031348105982329</v>
+        <v>7.266035650319498</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.947770690675383</v>
+        <v>1.408535219071251</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.432131115577381</v>
+        <v>5.611272264436256</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.92956351172565</v>
+        <v>1.880977247008878</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.207503380874812</v>
+        <v>1.925370998951853</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.573078298239095</v>
+        <v>0.05826164343470186</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.864274224184153</v>
+        <v>7.316092669653514</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7.031304212753483</v>
+        <v>2.592078810397113</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.905548312494711</v>
+        <v>6.442759464234851</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.208602562441828</v>
+        <v>8.218170192137864</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.054720200776712</v>
+        <v>6.964149940692087</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.430684521475486</v>
+        <v>4.24143648670358</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.042492300268133</v>
+        <v>3.771644459014993</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.933193962972994</v>
+        <v>5.706252045635315</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.005099389174039</v>
+        <v>1.5544111317681</v>
       </c>
     </row>
   </sheetData>

--- a/data/origin/das.xlsx
+++ b/data/origin/das.xlsx
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.401691874696803</v>
+        <v>4.603984436103391</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.76467452504393</v>
+        <v>6.094703458247802</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.287014625344667</v>
+        <v>2.677673238899671</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.797197582688225</v>
+        <v>4.662760222397549</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.128447725126659</v>
+        <v>8.167101246326098</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.244357805133014</v>
+        <v>4.980173589213116</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.610068341713293</v>
+        <v>4.516653111267372</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.388956770419529</v>
+        <v>5.811984507228463</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.559033899975498</v>
+        <v>1.898837945160105</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.981606800490533</v>
+        <v>5.350116103640843</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.608951652018971</v>
+        <v>8.227250872154439</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.304475149655995</v>
+        <v>9.923400305508482</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.779873531787943</v>
+        <v>7.400988218132122</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.123337623112671</v>
+        <v>6.242460370967557</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.679917968419034</v>
+        <v>5.329441922170221</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.911436619250049</v>
+        <v>4.830987894685923</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.239071518162906</v>
+        <v>6.391510339543411</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.286493935669152</v>
+        <v>3.008922635962077</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.127090800180497</v>
+        <v>7.761785900326813</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.19374960506862</v>
+        <v>4.893136074800734</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.299507099948784</v>
+        <v>7.793064822961734</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.185443386572016</v>
+        <v>3.176348182519749</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.305091081495919</v>
+        <v>6.095144057962687</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.036868560319679</v>
+        <v>9.848886757201115</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.08773538424278</v>
+        <v>8.394541909149671</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.119204246515875</v>
+        <v>7.29418158974558</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.178619229748853</v>
+        <v>6.61127870869838</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.915351572926261</v>
+        <v>6.024872156857477</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.704637851921256</v>
+        <v>9.20029006470682</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.115598477028679</v>
+        <v>3.782901770972532</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.399249054108792</v>
+        <v>6.304281761080148</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.998428194815172</v>
+        <v>6.101962363949355</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.400718069883279</v>
+        <v>6.653010728923378</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.531238905108285</v>
+        <v>8.006379795139731</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.237262497265881</v>
+        <v>7.795403501006909</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.250083312487731</v>
+        <v>6.996821888738001</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.491809679539187</v>
+        <v>4.760257656488166</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.19315183036728</v>
+        <v>6.825661720589844</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.389625020937447</v>
+        <v>5.907460295018176</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.272706368638572</v>
+        <v>4.51940471205344</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.852257679304406</v>
+        <v>8.714315968465094</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.257003176178905</v>
+        <v>9.823770714889555</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.278998788699248</v>
+        <v>8.462974354194401</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.525060251021312</v>
+        <v>9.939989537301216</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.7032458659946</v>
+        <v>6.07739041574539</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.798701302518477</v>
+        <v>4.60972884793154</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4798427160451819</v>
+        <v>5.913846551345264</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.428262309228168</v>
+        <v>5.584816457870196</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.475503690348053</v>
+        <v>10.32362232713519</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.161308751209785</v>
+        <v>8.683444235516927</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.843294464178347</v>
+        <v>5.437428120398999</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.182921634717218</v>
+        <v>5.811473186457449</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.051688969186412</v>
+        <v>8.088205240535547</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.300237046008966</v>
+        <v>4.714181230111855</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.462021363774697</v>
+        <v>7.814400729016796</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.35230581896339</v>
+        <v>9.629535243593276</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.768541005632567</v>
+        <v>6.82059603427948</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.005942430948346</v>
+        <v>7.304960092260268</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.464878722763522</v>
+        <v>5.584213018935818</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.971673433777616</v>
+        <v>9.241700567805065</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.487660508887165</v>
+        <v>10.21450324107374</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.02505601789328</v>
+        <v>7.879062457638248</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.213247153753179</v>
+        <v>8.225783149494061</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.763339947681066</v>
+        <v>6.990423285424634</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.662061375097649</v>
+        <v>8.143736336238032</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.899399091374187</v>
+        <v>8.425645597193913</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.773525825460924</v>
+        <v>8.500898905443343</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.506283749933935</v>
+        <v>6.144398188225074</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.450218731719071</v>
+        <v>4.463398320415957</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.590727046191531</v>
+        <v>3.853712819228715</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.812576750497797</v>
+        <v>4.577422534855678</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.79250448829644</v>
+        <v>7.268822732345989</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09947903619212095</v>
+        <v>8.63407525256997</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.570263624428437</v>
+        <v>7.809033964944395</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.931762357668379</v>
+        <v>6.440718499152548</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.186375403766296</v>
+        <v>5.569178112164362</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.425919758733045</v>
+        <v>5.018537864698925</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.808221931181094</v>
+        <v>8.491518682369842</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.924224758239562</v>
+        <v>6.36644260268681</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.288111911805575</v>
+        <v>9.49204030101961</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.15681340328798</v>
+        <v>9.530602352611064</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.180695854434932</v>
+        <v>4.976687579066452</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.187273537103759</v>
+        <v>6.972078230736988</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.104802103143954</v>
+        <v>2.276984753070907</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.943185311103814</v>
+        <v>6.154487208724669</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7492394341108644</v>
+        <v>7.886835640818964</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.182695765183743</v>
+        <v>7.480016053174589</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.01863060489941</v>
+        <v>10.11529089044041</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.11267593452757</v>
+        <v>5.341339861534815</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.692202228428175</v>
+        <v>3.155188229989875</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.11741250827266</v>
+        <v>5.448509211278795</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.686126762320946</v>
+        <v>5.50680054490175</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.426642274841723</v>
+        <v>6.739256474542178</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.882044972280746</v>
+        <v>5.017204284825719</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.001953578824643</v>
+        <v>5.923953386912089</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.700402567661439</v>
+        <v>6.352613891447068</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.358401786619698</v>
+        <v>5.702741755615766</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.687113649515569</v>
+        <v>6.969856310809022</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.488244001418</v>
+        <v>6.052333113424753</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.70024654331812</v>
+        <v>8.993644453610434</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.729361178310821</v>
+        <v>4.186305124747678</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3187147122988838</v>
+        <v>7.092415886112078</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.831271292183256</v>
+        <v>5.077261375328197</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.706144045107287</v>
+        <v>7.64461816554126</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.063744101524941</v>
+        <v>5.593104533127748</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.606898368935841</v>
+        <v>4.399582526504063</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.531957241766232</v>
+        <v>3.808956254179148</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.372597875639149</v>
+        <v>7.688352760880115</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.010338472892599</v>
+        <v>6.032436649419829</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.482750579521127</v>
+        <v>5.482056119483379</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.648589369959867</v>
+        <v>5.69854125559454</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.305311413624192</v>
+        <v>6.86636551324981</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.631900266112631</v>
+        <v>6.90046070541631</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.725952824174496</v>
+        <v>6.170276472375027</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.188253716059052</v>
+        <v>6.864790998086125</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.328214255104175</v>
+        <v>6.959942258976211</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.733851280108798</v>
+        <v>10.01988267747503</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.169500580030677</v>
+        <v>4.250421434555218</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.344070673185433</v>
+        <v>8.803524998145845</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.11412820577536</v>
+        <v>5.340473273873171</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.270188658917117</v>
+        <v>12.58762852807597</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.720946550500467</v>
+        <v>5.933056144528771</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.531013966888249</v>
+        <v>6.539403174708378</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.995187053613603</v>
+        <v>7.015794266519022</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.040191666851436</v>
+        <v>7.610909343653078</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.997662059439242</v>
+        <v>8.419041483731506</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.460601742387015</v>
+        <v>6.181525839931636</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.410763100262005</v>
+        <v>7.983876776930175</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.976777716805636</v>
+        <v>6.448371231545728</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.657035574034596</v>
+        <v>5.441539876952609</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.865539318809185</v>
+        <v>3.821862931325597</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.54388562385396</v>
+        <v>5.894006962581487</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.754148675351436</v>
+        <v>8.256522867038001</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.925109260348902</v>
+        <v>9.815623727025397</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.139213906760338</v>
+        <v>4.155054134704265</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8.233947468695812</v>
+        <v>4.086625819126426</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.861298472385135</v>
+        <v>5.572932285166094</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.575948435305217</v>
+        <v>8.472925051194508</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.495820195216591</v>
+        <v>7.965838665505355</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.235451842691984</v>
+        <v>3.755000564482581</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.326370838469278</v>
+        <v>6.791344897268895</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.814800424052374</v>
+        <v>6.952353956821947</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.266035650319498</v>
+        <v>12.72517223861916</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.408535219071251</v>
+        <v>6.561032904515495</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.611272264436256</v>
+        <v>5.75543902440779</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.880977247008878</v>
+        <v>4.129878876638298</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.925370998951853</v>
+        <v>6.562797481125938</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.05826164343470186</v>
+        <v>5.91559869081174</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.316092669653514</v>
+        <v>8.244132660973438</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.592078810397113</v>
+        <v>6.525535136157372</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.442759464234851</v>
+        <v>6.357427057520009</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.218170192137864</v>
+        <v>6.641910515911237</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.964149940692087</v>
+        <v>5.266122470022361</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.24143648670358</v>
+        <v>7.900181517098631</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.771644459014993</v>
+        <v>6.71807831056616</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.706252045635315</v>
+        <v>11.0492283246822</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.5544111317681</v>
+        <v>5.62133419744168</v>
       </c>
     </row>
   </sheetData>
